--- a/wash_P/SYR.xlsx
+++ b/wash_P/SYR.xlsx
@@ -63038,7 +63038,7 @@
         <v>0</v>
       </c>
       <c r="NA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NB20" t="n">
         <v>0</v>
